--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed5/result_data_KNN.xlsx
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.566000000000001</v>
+        <v>4.951000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>4.912000000000001</v>
+        <v>5.516</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.909999999999999</v>
+        <v>6.77</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.053999999999998</v>
+        <v>8.599</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.968000000000001</v>
+        <v>6.027</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.165999999999999</v>
+        <v>6.311</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.242</v>
+        <v>5.176</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.763</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1216,7 +1216,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.356</v>
+        <v>4.654000000000001</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.923999999999999</v>
+        <v>5.516</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.616</v>
+        <v>5.367</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.741999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.142</v>
+        <v>5.883</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.046</v>
+        <v>5.02</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.376</v>
+        <v>5.923</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.306</v>
+        <v>5.424000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.792</v>
+        <v>5.699</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>8.354000000000003</v>
+        <v>7.950999999999999</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
